--- a/0_data/9_evaluation/distances/d/d_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/d/d_kl_oa_metrics.xlsx
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.1807</v>
+        <v>14.9763</v>
       </c>
       <c r="C4" t="n">
-        <v>11.72</v>
+        <v>14.09</v>
       </c>
       <c r="D4" t="n">
-        <v>3.3843</v>
+        <v>3.5236</v>
       </c>
       <c r="E4" t="n">
-        <v>19.82</v>
+        <v>22.64</v>
       </c>
       <c r="F4" t="n">
-        <v>5.948300000000001</v>
+        <v>6.379700000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0154</v>
+        <v>0.0143</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2344</v>
+        <v>2.3775</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>3.51</v>
       </c>
       <c r="J4" t="n">
-        <v>283.24</v>
+        <v>286.12</v>
       </c>
       <c r="K4" t="n">
-        <v>6.174300000000001</v>
+        <v>6.0166</v>
       </c>
       <c r="L4" t="n">
-        <v>2.8656</v>
+        <v>2.800099999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>6.067099999999999</v>
+        <v>5.8088</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[71.94, 21.73, 99.92, 42.66, 9.65, 17.43, 0.21, 10.18, 2.41, 2.89, 1.05, 0.08, 1.71, 0.03, 0.17, 0.12, 0.03, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[70.82, 21.59, 95.93, 40.61, 12.01, 22.11, 0.44, 12.02, 2.38, 3.08, 1.54, 0.1, 1.55, 0.12, 0.41, 0.09, 0.05, 0.1, 0.01, 0.02, 0.0, 0.03, 0.02, 0.0, 0.03, 0.01, 0.02, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[55.48, 0.19, 45.2, 0.24, 51.51, 9.45, 0.31, 48.55, 0.2, 50.2, 0.97, 20.94]</t>
+          <t>[52.69, 0.58, 49.13, 0.77, 54.52, 12.1, 0.69, 46.91, 0.97, 48.9, 0.5, 18.36]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[7.41, 71.22, 117.13, 25.98, 27.37, 3.25, 7.81, 2.81, 6.0, 1.05, 2.02, 0.95, 2.85, 0.6, 1.24, 0.59, 2.61, 0.25, 0.41, 0.08, 0.38, 0.02, 0.04, 0.04, 0.14, 0.0, 0.02, 0.03, 0.14, 0.05, 0.01, 0.0]</t>
+          <t>[10.07, 79.38, 98.04, 36.78, 30.91, 3.87, 4.93, 2.6, 5.33, 1.13, 1.52, 0.82, 2.63, 0.68, 1.4, 0.6, 2.75, 0.46, 0.44, 0.1, 0.46, 0.06, 0.03, 0.03, 0.06, 0.02, 0.0, 0.0, 0.03, 0.01, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.17, 100.88, 0.0, 71.36, 0.0, 14.91, 0.0, 58.57, 0.0, 6.46, 0.0, 4.45, 1.6, 1.94, 0.0, 12.24, 0.0, 1.22, 0.44, 1.02, 0.47, 0.57, 0.0, 1.02, 0.0, 0.36, 0.27, 0.33, 0.1, 0.24, 0.0, 4.22, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[0.05, 108.09, 0.0, 77.53, 0.0, 16.17, 0.0, 49.52, 0.01, 3.91, 0.0, 4.36, 1.44, 1.4, 0.0, 13.13, 0.0, 1.05, 0.56, 1.34, 0.44, 0.46, 0.01, 1.38, 0.0, 0.47, 0.17, 0.62, 0.14, 0.21, 0.0, 3.42, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[16.14, 0.0, 13.29, 0.0, 4.21, 0.39, 0.0, 4.05, 0.0, 9.32, 0.14, 7.77], [0.0, 0.05, 0.03, 0.03, 0.01, 0.03, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0], [14.34, 0.06, 10.47, 0.02, 13.66, 0.44, 0.03, 2.5, 0.01, 1.9, 0.1, 1.48], [0.06, 0.02, 0.02, 0.01, 0.0, 0.06, 0.0, 0.0, 0.0, 0.0, 0.05, 0.01], [3.93, 0.01, 15.82, 0.02, 12.23, 3.17, 0.13, 11.2, 0.04, 3.8, 0.01, 0.98], [0.25, 0.0, 0.35, 0.1, 3.51, 2.68, 0.0, 1.89, 0.03, 0.48, 0.06, 0.06], [0.0, 0.0, 0.05, 0.0, 0.11, 0.0, 0.05, 0.04, 0.01, 0.04, 0.0, 0.01], [3.59, 0.01, 2.46, 0.02, 11.74, 2.14, 0.04, 13.58, 0.02, 13.97, 0.01, 0.82], [0.0, 0.01, 0.0, 0.01, 0.01, 0.02, 0.0, 0.01, 0.01, 0.09, 0.03, 0.01], [9.93, 0.0, 1.78, 0.0, 5.05, 0.34, 0.05, 13.08, 0.05, 13.94, 0.0, 5.83], [0.09, 0.03, 0.08, 0.03, 0.04, 0.07, 0.0, 0.05, 0.01, 0.05, 0.52, 0.0], [6.92, 0.0, 0.84, 0.0, 0.64, 0.08, 0.0, 1.94, 0.02, 6.39, 0.02, 3.97]]</t>
+          <t>[[13.53, 0.01, 13.21, 0.04, 4.7, 0.82, 0.02, 4.7, 0.07, 8.93, 0.06, 6.45], [0.05, 0.06, 0.06, 0.07, 0.07, 0.07, 0.03, 0.03, 0.03, 0.04, 0.07, 0.0], [14.58, 0.04, 12.54, 0.04, 13.7, 0.99, 0.05, 3.28, 0.05, 2.06, 0.03, 1.6], [0.04, 0.11, 0.08, 0.14, 0.07, 0.15, 0.02, 0.06, 0.05, 0.01, 0.03, 0.0], [4.83, 0.04, 15.65, 0.07, 13.71, 3.87, 0.11, 9.92, 0.04, 5.04, 0.03, 0.99], [0.43, 0.09, 1.01, 0.18, 4.57, 3.2, 0.08, 1.78, 0.11, 0.43, 0.08, 0.1], [0.02, 0.03, 0.06, 0.02, 0.17, 0.03, 0.1, 0.08, 0.04, 0.1, 0.02, 0.02], [4.08, 0.0, 3.32, 0.04, 10.5, 2.24, 0.13, 11.9, 0.12, 13.19, 0.01, 1.23], [0.06, 0.06, 0.05, 0.08, 0.06, 0.06, 0.04, 0.08, 0.24, 0.13, 0.07, 0.04], [9.21, 0.07, 2.28, 0.02, 5.64, 0.49, 0.07, 12.81, 0.1, 13.5, 0.0, 4.49], [0.02, 0.05, 0.03, 0.07, 0.02, 0.06, 0.02, 0.04, 0.05, 0.02, 0.08, 0.04], [5.68, 0.02, 0.8, 0.0, 1.06, 0.11, 0.02, 1.96, 0.07, 5.18, 0.02, 3.4]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.08, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 56.23, 0.0, 15.49, 0.0, 3.76, 0.0, 16.76, 0.0, 1.3, 0.0, 1.03, 0.29, 0.53, 0.0, 2.99, 0.0, 0.32, 0.07, 0.21, 0.07, 0.09, 0.0, 0.19, 0.0, 0.03, 0.04, 0.06, 0.01, 0.05, 0.0, 0.97], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 15.02, 0.0, 34.26, 0.0, 3.16, 0.0, 10.09, 0.0, 1.04, 0.0, 1.2, 0.43, 0.48, 0.0, 3.03, 0.0, 0.31, 0.14, 0.22, 0.16, 0.15, 0.0, 0.25, 0.0, 0.09, 0.04, 0.08, 0.04, 0.03, 0.0, 0.94], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 3.44, 0.0, 2.59, 0.0, 2.8, 0.0, 3.13, 0.0, 0.52, 0.0, 0.29, 0.28, 0.22, 0.0, 0.9, 0.0, 0.11, 0.01, 0.03, 0.04, 0.01, 0.0, 0.08, 0.0, 0.04, 0.03, 0.03, 0.01, 0.03, 0.0, 0.31], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1, 16.37, 0.0, 10.17, 0.0, 2.66, 0.0, 21.6, 0.0, 0.9, 0.0, 0.81, 0.23, 0.23, 0.0, 2.92, 0.0, 0.21, 0.14, 0.31, 0.12, 0.11, 0.0, 0.26, 0.0, 0.1, 0.06, 0.05, 0.02, 0.04, 0.0, 0.89], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 1.64, 0.0, 1.07, 0.0, 0.53, 0.0, 0.83, 0.0, 1.33, 0.0, 0.18, 0.09, 0.12, 0.0, 0.26, 0.0, 0.03, 0.02, 0.02, 0.01, 0.03, 0.0, 0.02, 0.0, 0.01, 0.04, 0.01, 0.0, 0.02, 0.0, 0.15], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.15, 0.0, 1.23, 0.0, 0.34, 0.0, 0.69, 0.0, 0.31, 0.0, 0.13, 0.07, 0.05, 0.0, 0.14, 0.0, 0.03, 0.0, 0.03, 0.0, 0.03, 0.0, 0.03, 0.0, 0.01, 0.02, 0.04, 0.0, 0.01, 0.0, 0.12], [0.0, 0.44, 0.0, 0.39, 0.0, 0.1, 0.0, 0.29, 0.0, 0.11, 0.0, 0.02, 0.01, 0.05, 0.0, 0.11, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03], [0.01, 0.74, 0.0, 0.4, 0.0, 0.16, 0.0, 0.24, 0.0, 0.11, 0.0, 0.06, 0.0, 0.05, 0.0, 0.06, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 2.77, 0.0, 3.3, 0.0, 0.81, 0.0, 2.71, 0.0, 0.33, 0.0, 0.27, 0.1, 0.07, 0.0, 1.26, 0.0, 0.08, 0.02, 0.08, 0.02, 0.01, 0.0, 0.06, 0.0, 0.02, 0.02, 0.0, 0.01, 0.01, 0.0, 0.22], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.41, 0.0, 0.22, 0.0, 0.06, 0.0, 0.13, 0.0, 0.1, 0.0, 0.04, 0.01, 0.0, 0.0, 0.05, 0.0, 0.02, 0.0, 0.01, 0.0, 0.03, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.09], [0.0, 0.14, 0.0, 0.05, 0.0, 0.02, 0.0, 0.11, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02], [0.0, 0.22, 0.0, 0.26, 0.0, 0.03, 0.0, 0.18, 0.0, 0.06, 0.0, 0.06, 0.0, 0.03, 0.0, 0.07, 0.0, 0.0, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.05], [0.0, 0.19, 0.0, 0.09, 0.0, 0.04, 0.0, 0.08, 0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01], [0.01, 0.17, 0.0, 0.14, 0.0, 0.03, 0.0, 0.07, 0.0, 0.06, 0.0, 0.01, 0.04, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.29, 0.0, 0.22, 0.0, 0.04, 0.0, 0.19, 0.0, 0.07, 0.0, 0.05, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.01, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.05], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.08, 0.0, 0.12, 0.0, 0.01, 0.0, 0.1, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.0, 0.07, 0.0, 0.03, 0.0, 0.07, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.1, 0.0, 0.06, 0.0, 0.01, 0.0, 0.06, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02], [0.0, 0.01, 0.0, 0.02, 0.0, 0.02, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.05, 0.0, 0.06, 0.0, 0.02, 0.0, 0.06, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.92, 0.0, 0.83, 0.0, 0.26, 0.0, 0.84, 0.0, 0.13, 0.0, 0.22, 0.05, 0.09, 0.0, 0.24, 0.0, 0.05, 0.02, 0.04, 0.03, 0.04, 0.0, 0.04, 0.0, 0.04, 0.0, 0.01, 0.01, 0.03, 0.0, 0.31]]</t>
+          <t>[[0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 63.56, 0.0, 17.1, 0.0, 5.45, 0.0, 13.48, 0.0, 1.16, 0.0, 0.93, 0.41, 0.54, 0.0, 3.01, 0.0, 0.32, 0.11, 0.14, 0.1, 0.12, 0.01, 0.37, 0.0, 0.12, 0.02, 0.11, 0.04, 0.04, 0.0, 0.61], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 16.62, 0.0, 36.08, 0.0, 2.8, 0.0, 10.76, 0.01, 1.18, 0.0, 1.98, 0.43, 0.43, 0.0, 3.2, 0.0, 0.35, 0.19, 0.6, 0.18, 0.14, 0.0, 0.48, 0.0, 0.14, 0.05, 0.32, 0.06, 0.04, 0.0, 1.22], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 4.59, 0.0, 3.74, 0.0, 2.77, 0.0, 2.53, 0.0, 0.31, 0.0, 0.17, 0.07, 0.03, 0.0, 1.15, 0.0, 0.09, 0.03, 0.03, 0.03, 0.06, 0.0, 0.12, 0.0, 0.07, 0.01, 0.02, 0.02, 0.03, 0.0, 0.26], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 13.46, 0.0, 10.28, 0.0, 2.53, 0.0, 16.38, 0.0, 0.58, 0.0, 0.59, 0.34, 0.23, 0.0, 2.99, 0.0, 0.2, 0.13, 0.33, 0.04, 0.07, 0.0, 0.21, 0.0, 0.04, 0.04, 0.05, 0.02, 0.05, 0.0, 0.69], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.51, 0.0, 0.83, 0.0, 0.42, 0.0, 0.57, 0.0, 0.09, 0.0, 0.03, 0.02, 0.02, 0.0, 0.19, 0.0, 0.01, 0.02, 0.04, 0.01, 0.01, 0.0, 0.04, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.03], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.06, 0.0, 1.69, 0.0, 0.25, 0.0, 0.73, 0.0, 0.07, 0.0, 0.05, 0.0, 0.02, 0.0, 0.16, 0.0, 0.01, 0.01, 0.06, 0.02, 0.02, 0.0, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.1], [0.0, 0.48, 0.0, 0.29, 0.0, 0.14, 0.0, 0.26, 0.0, 0.01, 0.0, 0.03, 0.01, 0.0, 0.0, 0.1, 0.0, 0.01, 0.0, 0.03, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.03], [0.0, 0.51, 0.0, 0.42, 0.0, 0.06, 0.0, 0.17, 0.0, 0.03, 0.0, 0.02, 0.01, 0.02, 0.0, 0.07, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.04], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 3.21, 0.0, 3.29, 0.0, 1.13, 0.0, 2.85, 0.0, 0.3, 0.0, 0.16, 0.1, 0.02, 0.0, 1.6, 0.0, 0.02, 0.01, 0.02, 0.03, 0.0, 0.0, 0.05, 0.0, 0.02, 0.0, 0.04, 0.0, 0.02, 0.0, 0.23], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.35, 0.0, 0.35, 0.0, 0.04, 0.0, 0.13, 0.0, 0.02, 0.0, 0.04, 0.0, 0.01, 0.0, 0.07, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.2, 0.0, 0.14, 0.0, 0.03, 0.0, 0.09, 0.0, 0.0, 0.0, 0.03, 0.01, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.29, 0.0, 0.51, 0.0, 0.07, 0.0, 0.15, 0.0, 0.02, 0.0, 0.05, 0.01, 0.01, 0.0, 0.09, 0.0, 0.02, 0.02, 0.02, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01], [0.0, 0.11, 0.0, 0.14, 0.0, 0.02, 0.0, 0.08, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.13, 0.0, 0.16, 0.0, 0.02, 0.0, 0.06, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.34, 0.0, 0.48, 0.0, 0.1, 0.0, 0.19, 0.0, 0.03, 0.0, 0.02, 0.0, 0.02, 0.0, 0.09, 0.0, 0.01, 0.01, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.03], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13, 0.0, 0.14, 0.0, 0.05, 0.0, 0.06, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.0, 0.05, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13, 0.0, 0.24, 0.0, 0.04, 0.0, 0.12, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.04, 0.0, 0.04, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.0, 0.03, 0.0, 0.04, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.88, 0.0, 1.09, 0.0, 0.14, 0.0, 0.65, 0.0, 0.1, 0.0, 0.15, 0.01, 0.03, 0.0, 0.18, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.03, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.09]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.776020459425505</v>
+        <v>3.818781390705679</v>
       </c>
       <c r="C5" t="n">
-        <v>2.159073875530895</v>
+        <v>3.295739674185448</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7141684045097487</v>
+        <v>0.6409095411990682</v>
       </c>
       <c r="E5" t="n">
-        <v>3.011245589452975</v>
+        <v>4.008790341237615</v>
       </c>
       <c r="F5" t="n">
-        <v>1.582976345369696</v>
+        <v>1.397075126827473</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02393407612589214</v>
+        <v>0.02098833009079093</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2630183263576894</v>
+        <v>0.1684599358898133</v>
       </c>
       <c r="I5" t="n">
-        <v>13.33348791577057</v>
+        <v>9.268759356030344</v>
       </c>
       <c r="J5" t="n">
-        <v>31.94342498856377</v>
+        <v>31.48595877530173</v>
       </c>
       <c r="K5" t="n">
-        <v>2.034401757274113</v>
+        <v>1.62252964225619</v>
       </c>
       <c r="L5" t="n">
-        <v>1.092499263157646</v>
+        <v>0.7503392499396523</v>
       </c>
       <c r="M5" t="n">
-        <v>2.228742378562404</v>
+        <v>1.882024059357372</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[22.49214084963901, 19.959386263109398, 19.28920941873979, 16.618796586997508, 4.7819974905890525, 5.620062277235013, 0.7783957862167549, 4.18659766397489, 2.223038461205743, 3.273820398250336, 1.0331989159885915, 0.30594117081556715, 1.8670565069113465, 0.17058722109231975, 0.42555845661906444, 0.3544009029333872, 0.17058722109231986, 0.1399999999999999, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[10.458852709547067, 15.868267076149179, 17.66309995442476, 10.473676527370891, 4.796863558618277, 5.013771035857142, 0.8163332652783425, 3.828785708289249, 1.5923567439490436, 1.7186040847152675, 1.1867602959317443, 0.29999999999999977, 1.2359207094308275, 0.35440090293338716, 0.567362318100171, 0.28618176042508353, 0.2179449471770336, 0.2999999999999999, 0.09949874371066199, 0.13999999999999987, 0.0, 0.17058722109231972, 0.1399999999999999, 0.0, 0.2215851980616036, 0.09949874371066199, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[24.808659778391903, 1.3834377470634536, 14.258330898110056, 1.9955951493226236, 13.874793692159896, 15.414522373398412, 1.3542156401400796, 23.66278724072885, 0.6633249580710796, 25.672163913468616, 9.351422351706699, 22.446745866606143]</t>
+          <t>[15.925887730359022, 2.000899797591077, 11.708676270185286, 2.9760880363322575, 11.821573499327407, 14.55094498649486, 2.133986879059943, 14.681345306204058, 2.095017899684869, 18.60671921645511, 1.6522711641858305, 15.467721228416293]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[10.602919409294783, 58.43536258123158, 79.01400572050503, 24.944730906546177, 25.376625071116138, 3.5815499438092444, 10.02765675519461, 4.274798240853012, 7.363423117002037, 1.9968725547715858, 3.40288113221723, 1.6332482971061075, 3.4303789878087803, 1.2649110640673518, 1.849972972775548, 1.1144056711987784, 4.0936414107735475, 0.6062177826491071, 0.749599893276407, 0.3059411708155671, 0.8219489035213813, 0.13999999999999993, 0.19595917942265417, 0.24166091947189108, 0.40049968789001594, 0.0, 0.13999999999999987, 0.17058722109231964, 0.44766058571198786, 0.40926763859362303, 0.09949874371066197, 0.0]</t>
+          <t>[11.71260432184064, 53.970506760637335, 72.03234273574611, 31.192813274855475, 23.264606164730147, 3.0287125977880422, 4.821317247392046, 2.4041630560342613, 4.261584212473103, 1.2219247112649785, 1.6998823488700616, 1.0137060717979343, 2.161735413967214, 1.0571660229122015, 1.6911534525287764, 0.8831760866327842, 2.511473670974872, 0.9210863151735567, 0.8284926070883198, 0.2999999999999999, 0.8052328855678956, 0.2764054992217047, 0.17058722109231983, 0.17058722109231977, 0.23748684174075793, 0.13999999999999987, 0.0, 0.0, 0.17058722109231986, 0.09949874371066199, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.6790434448545984, 77.23318975673607, 0.0, 70.91438782080826, 0.0, 22.960442068914965, 0.0, 46.79343009440536, 0.0, 16.908234680178758, 0.0, 6.219927652312363, 2.387467277262665, 3.2582817557725114, 0.0, 12.953084574725821, 0.0, 2.0812496246245913, 0.791454357496376, 1.6551737068960473, 1.0812492774564064, 1.1511298797268708, 0.0, 1.928626454241463, 0.0, 0.9002221947941514, 0.6301587101675257, 0.9803570778037975, 0.36055512754639873, 0.6343500610861486, 0.0, 6.709068489738344, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[0.2598076211353318, 82.77851110040575, 0.0, 63.28103270333063, 0.0, 19.168231530321204, 0.0, 40.58878662882151, 0.09949874371066195, 3.01029898847274, 0.0, 4.34630877872247, 1.7223240113288794, 1.6186414056238643, 0.0, 12.909419041924389, 0.0, 1.2359207094308275, 0.8639444426582066, 2.3204309944490906, 0.8867919710958151, 0.7269112738154496, 0.09949874371066199, 1.7016462617124632, 0.0, 0.8179853299418032, 0.4255584566190644, 1.1556816170554933, 0.40049968789001594, 0.43116122274620217, 0.0, 4.06, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[18.868502855287698, 0.0, 5.817722922243721, 0.0, 2.6619353861429462, 0.9580709785814415, 0.0, 3.73195659138742, 0.0, 5.864946717575532, 1.392982411949267, 7.665317997317529], [0.0, 0.3570714214271425, 0.2984962311319856, 0.2215851980616035, 0.09949874371066195, 0.2984962311319856, 0.09949874371066199, 0.0, 0.0, 0.0, 0.2984962311319856, 0.0], [6.245350270401174, 0.41999999999999876, 6.277666764013523, 0.13999999999999985, 5.54476329521829, 1.0031948963187574, 0.1705872210923198, 2.1, 0.09949874371066195, 1.5968719422671318, 0.9949874371066222, 1.9973983077994237], [0.41999999999999876, 0.13999999999999987, 0.13999999999999987, 0.09949874371066195, 0.0, 0.5969924622639712, 0.0, 0.0, 0.0, 0.0, 0.4974937185533111, 0.09949874371066195], [2.3801470542804704, 0.09949874371066195, 5.705050394168312, 0.13999999999999985, 6.10713517125665, 4.713926176766029, 0.577148161220323, 6.562011886609167, 0.19595917942265406, 2.622975409720801, 0.09949874371066195, 1.469557756605707], [0.6383572667401852, 0.0, 0.7921489758877431, 0.9000000000000025, 5.393505353663793, 6.8860438569617, 0.0, 3.3042245686393645, 0.2215851980616033, 0.830421579681068, 0.5969924622639712, 0.23748684174075824], [0.0, 0.0, 0.3278719262150994, 0.0, 0.5812916651733447, 0.0, 0.29580398915498074, 0.24166091947189147, 0.09949874371066195, 0.2416609194718915, 0.0, 0.09949874371066193], [3.133991065717961, 0.09949874371066195, 1.7687283567580407, 0.1989974874213239, 6.917542916382952, 3.7550499330901066, 0.24166091947189147, 13.481973149357625, 0.1399999999999999, 7.058973013123087, 0.09949874371066195, 1.2359611644384303], [0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.09949874371066196, 0.13999999999999987, 0.0, 0.09949874371066193, 0.09949874371066199, 0.3192177939902476, 0.22158519806160287, 0.09949874371066196], [6.42534823958982, 0.0, 1.603620902832087, 0.0, 3.4824560298731706, 0.8511169132381288, 0.25980762113533157, 6.755264613618033, 0.25980762113533207, 17.187099813522934, 0.0, 7.027168704392973], [0.8954886933959575, 0.2984962311319856, 0.7959899496852956, 0.2984962311319856, 0.31368774282716216, 0.6964912059746335, 0.0, 0.4974937185533111, 0.09949874371066195, 0.3278719262150994, 5.173934672954414, 0.0], [7.722279456222755, 0.0, 1.527874340382743, 0.0, 1.0150862032359607, 0.3059411708155671, 0.0, 2.292684016605865, 0.13999999999999985, 7.372781022110992, 0.13999999999999993, 6.106480164546517]]</t>
+          <t>[[7.9428647225040905, 0.09949874371066199, 5.368975693742708, 0.195959179422654, 2.220360331117451, 1.2114454176726244, 0.13999999999999987, 3.0248966924508345, 0.25514701644346155, 4.648128655706509, 0.23748684174075804, 4.827784170817914], [0.2598076211353317, 0.3411744421846401, 0.2374868417407581, 0.3809199390948177, 0.3536947836765472, 0.43023249528597846, 0.2215851980616033, 0.17058722109231989, 0.2215851980616033, 0.24166091947189125, 0.38091993909481764, 0.0], [5.692416007285482, 0.24166091947189114, 5.634571855962084, 0.19595917942265395, 4.56618002273235, 1.3152566289511711, 0.21794494717703367, 1.9903768487399556, 0.21794494717703367, 1.4820256408038293, 0.17058722109231975, 1.8601075237738285], [0.19595917942265417, 0.6464518543557579, 0.27129319932501095, 1.0101485039339504, 0.2551470164434616, 0.7399324293474374, 0.19899748742132392, 0.3104834939252005, 0.3570714214271421, 0.09949874371066196, 0.17058722109231975, 0.0], [2.1819945004513643, 0.2416609194718912, 4.418993097980579, 0.25514701644346155, 5.325964701347541, 4.500344431263016, 0.48774993593028804, 4.330542691164699, 0.1959591794226541, 2.8702613121456384, 0.17058722109231972, 1.3819913169047044], [0.7778817390837758, 0.4493328387732186, 1.4317471843869654, 0.6690291473471096, 4.764986883507656, 5.836094584565942, 0.30594117081556693, 2.3646564232463048, 0.5812916651733436, 0.7246378405796923, 0.3919183588453079, 0.33166247903553975], [0.13999999999999987, 0.17058722109231975, 0.23748684174075807, 0.13999999999999987, 0.7078841713161836, 0.1705872210923198, 0.41231056256176596, 0.3655133376499411, 0.24166091947189136, 0.36055512754639885, 0.13999999999999987, 0.13999999999999987], [2.7006665843824558, 0.0, 1.6178998732925343, 0.19595917942265395, 4.028647415696738, 2.4944738924270187, 0.5030904491242104, 6.754998149518622, 0.3815756805667785, 7.003848941831912, 0.09949874371066199, 1.2872839624573906], [0.2374868417407581, 0.3104834939252002, 0.2179449471770336, 0.4399999999999995, 0.23748684174075824, 0.2764054992217046, 0.1959591794226542, 0.271293199325011, 0.8260750571225349, 0.39127995093027673, 0.35369478367654705, 0.19595917942265415], [4.854472164921743, 0.2917190429162964, 1.51710250148103, 0.13999999999999987, 3.4249671531271657, 0.7809609465267767, 0.2917190429162963, 6.205956815834283, 0.2999999999999999, 9.256889326334198, 0.0, 4.471006598071624], [0.13999999999999987, 0.21794494717703364, 0.17058722109231986, 0.5148786264742395, 0.13999999999999996, 0.3411744421846402, 0.13999999999999993, 0.19595917942265428, 0.25980762113533207, 0.13999999999999996, 0.46216880033165325, 0.1959591794226539], [4.68162364997444, 0.13999999999999996, 1.0583005244258368, 0.0, 1.2314219423089716, 0.39736632972611063, 0.13999999999999993, 1.72580416038437, 0.2551470164434616, 4.699744673915808, 0.13999999999999996, 4.617358552246078]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.0, 0.17058722109231989, 0.0, 0.09949874371066197, 0.0, 0.09949874371066197, 0.0, 0.43999999999999967, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2799999999999998, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 64.82049907243851, 0.0, 15.42562478475345, 0.0, 5.109050792466249, 0.0, 17.79950561111179, 0.0, 2.9240383034426904, 0.0, 2.1561771726831727, 0.6048966853934644, 1.1615076409563565, 0.0, 3.683734518121522, 0.0, 1.028396810574595, 0.2917190429162964, 0.5530822723609934, 0.35369478367654694, 0.28618176042508375, 0.0, 0.594894948709434, 0.0, 0.29849623113198553, 0.24166091947189108, 0.27640549922170465, 0.09949874371066199, 0.2179449471770336, 0.0, 1.4453719244540488], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1399999999999999, 15.357070033049927, 0.0, 59.11101758555677, 0.0, 4.053936358651922, 0.0, 10.897793354620005, 0.0, 1.72580416038437, 0.0, 2.4859605789312114, 1.0124722218411721, 0.9537295214053094, 0.0, 4.297569080305748, 0.0, 0.6433506042586731, 0.37469987990390413, 0.5758472019555192, 0.4630334761116097, 0.409267638593623, 0.0, 0.5894913061275798, 0.0, 0.3192177939902477, 0.2416609194718914, 0.36551333764994093, 0.195959179422654, 0.1705872210923198, 0.0, 2.091984703576965], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 4.676152264415692, 0.0, 3.5583563621424985, 0.0, 12.496399481450648, 0.0, 4.601423692728157, 0.0, 1.3673331708109764, 0.0, 0.816026960338934, 0.6645299090334457, 0.954777460982401, 0.0, 1.7233687939614089, 0.0, 0.34336569426778807, 0.09949874371066199, 0.17058722109231975, 0.19595917942265423, 0.09949874371066199, 0.0, 0.30594117081556726, 0.0, 0.19595917942265423, 0.17058722109231975, 0.17058722109231972, 0.09949874371066199, 0.22158519806160323, 0.0, 0.8566796367370952], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.3316624790355398, 17.64860051108869, 0.0, 11.11580406448405, 0.0, 4.032914578812695, 0.0, 31.90172409134027, 0.0, 1.7175564037317665, 0.0, 1.3468110483657316, 0.5806031346797919, 0.5450688029964661, 0.0, 4.570951760848063, 0.0, 0.5346961754117942, 0.4247352116319061, 0.6884039511798287, 0.35440090293338716, 0.4217819341792629, 0.0, 0.756571212775109, 0.0, 0.2999999999999998, 0.2374868417407581, 0.25980762113533173, 0.13999999999999987, 0.39799497484264784, 0.0, 1.6179925834193436], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 2.995062603686274, 0.0, 1.9403865594257252, 0.0, 1.7745703705404294, 0.0, 1.5495483212859151, 0.0, 10.556566676718303, 0.0, 0.7794870107962045, 0.3491418050019218, 0.5528109984434098, 0.0, 0.7296574538781876, 0.0, 0.17058722109231989, 0.1989974874213239, 0.13999999999999985, 0.09949874371066195, 0.2215851980616028, 0.0, 0.13999999999999987, 0.0, 0.09949874371066196, 0.19595917942265398, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.536190264738181], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.8621224449536067, 0.0, 2.618606499648237, 0.0, 0.8511169132381288, 0.0, 1.1806354221350475, 0.0, 0.996945334509371, 0.0, 0.5030904491242105, 0.2917190429162964, 0.2179449471770336, 0.0, 0.5480875842417888, 0.0, 0.17058722109231977, 0.0, 0.2215851980616033, 0.0, 0.22158519806160282, 0.0, 0.17058722109231975, 0.0, 0.09949874371066193, 0.13999999999999987, 0.3136877428271622, 0.0, 0.09949874371066199, 0.0, 0.4955804677345545], [0.0, 0.8867919710958148, 0.0, 0.9787236586493657, 0.0, 0.3872983346207415, 0.0, 0.6677574409918617, 0.0, 0.39736632972611075, 0.0, 0.13999999999999987, 0.09949874371066199, 0.2598076211353322, 0.0, 0.3433656942677881, 0.0, 0.09949874371066195, 0.0, 0.09949874371066195, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231972], [0.09949874371066197, 1.4739063742314165, 0.0, 0.774596669241483, 0.0, 0.8333066662399861, 0.0, 0.6183849933496126, 0.0, 0.5458021619598078, 0.0, 0.3104834939252007, 0.0, 0.2958039891549806, 0.0, 0.2374868417407584, 0.0, 0.13999999999999985, 0.09949874371066195, 0.09949874371066195, 0.0, 0.0, 0.0, 0.13999999999999999, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999996], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19899748742132395, 3.602374217096275, 0.0, 4.343961325794697, 0.0, 1.6893489870361296, 0.0, 3.9681103815292245, 0.0, 0.7490660852020995, 0.0, 0.7596709814123478, 0.38729833462074154, 0.25514701644346155, 0.0, 3.100387072608838, 0.0, 0.2712931993250109, 0.13999999999999987, 0.36551333764994065, 0.13999999999999985, 0.09949874371066195, 0.0, 0.36932370625238814, 0.0, 0.13999999999999987, 0.13999999999999985, 0.0, 0.09949874371066197, 0.09949874371066199, 0.0, 0.807217442824423], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.2255202976695247, 0.0, 0.6569627082262743, 0.0, 0.23748684174075824, 0.0, 0.3912799509302769, 0.0, 0.3316624790355398, 0.0, 0.19595917942265423, 0.09949874371066199, 0.0, 0.0, 0.21794494717703375, 0.0, 0.1989974874213239, 0.0, 0.09949874371066197, 0.0, 0.17058722109231975, 0.0, 0.17058722109232008, 0.0, 0.09949874371066197, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.34914180500192205], [0.0, 0.44766058571198813, 0.0, 0.21794494717703378, 0.0, 0.13999999999999985, 0.0, 0.3973663297261107, 0.0, 0.13999999999999996, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.17058722109231977, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.13999999999999985], [0.0, 0.5929586832149442, 0.0, 0.687313611097583, 0.0, 0.1705872210923197, 0.0, 0.5723635208501674, 0.0, 0.3104834939252011, 0.0, 0.3104834939252004, 0.0, 0.1705872210923198, 0.0, 0.291719042916296, 0.0, 0.0, 0.0, 0.13999999999999993, 0.09949874371066197, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.21794494717703375], [0.0, 0.523354564325181, 0.0, 0.4023679907746148, 0.0, 0.1959591794226542, 0.0, 0.27129319932501084, 0.0, 0.17058722109231975, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066196], [0.09949874371066199, 0.42555845661906444, 0.0, 0.44766058571198797, 0.0, 0.17058722109231986, 0.0, 0.2551470164434615, 0.0, 0.3104834939252004, 0.0, 0.09949874371066193, 0.19595917942265417, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7654410493303844, 0.0, 0.558211429478115, 0.0, 0.24166091947189108, 0.0, 0.542125446737192, 0.0, 0.4302324952859783, 0.0, 0.40926763859362214, 0.0, 0.13999999999999999, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066199, 0.19899748742132387, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066193, 0.0, 0.3278719262150994], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3655133376499404, 0.0, 0.5706137047074832, 0.0, 0.09949874371066199, 0.0, 0.3316624790355398, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.29171904291629636, 0.0, 0.35369478367654694, 0.0, 0.17058722109231975, 0.0, 0.25514701644346155, 0.0, 0.09949874371066195, 0.0, 0.1989974874213239, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.38729833462074154, 0.0, 0.3104834939252008, 0.0, 0.09949874371066195, 0.0, 0.3104834939252006, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.09949874371066196, 0.0, 0.13999999999999996, 0.0, 0.19899748742132398, 0.0, 0.2416609194718912, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2179449471770336, 0.0, 0.23748684174075815, 0.0, 0.13999999999999987, 0.0, 0.2374868417407581, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.6714065932620945, 0.0, 1.57515078643284, 0.0, 0.5765414122159825, 0.0, 1.6414627622946556, 0.0, 0.48280430818293224, 0.0, 0.7426977851050862, 0.2179449471770337, 0.31921779399024763, 0.0, 0.6800000000000003, 0.0, 0.2179449471770337, 0.13999999999999987, 0.31368774282716233, 0.17058722109231994, 0.19595917942265398, 0.0, 0.3136877428271622, 0.0, 0.19595917942265415, 0.0, 0.09949874371066199, 0.09949874371066196, 0.17058722109231994, 0.0, 1.7186913626361144]]</t>
+          <t>[[0.0, 0.0, 0.0, 0.17058722109231986, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 69.28510951135172, 0.0, 14.050978613605526, 0.0, 6.388074827363874, 0.0, 13.062526554996936, 0.0, 1.6716458955173485, 0.0, 1.2349493916756265, 0.7224264668462811, 1.268227108999015, 0.0, 2.9647765514453193, 0.0, 0.6144916598294886, 0.34336569426778807, 0.510294032886923, 0.3316624790355398, 0.35440090293338716, 0.09949874371066199, 0.7163099887618487, 0.0, 0.3249615361854386, 0.13999999999999996, 0.34336569426778807, 0.2416609194718912, 0.19595917942265428, 0.0, 0.9989494481704276], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 13.293441992200515, 0.0, 49.637421367351465, 0.0, 3.765634076752546, 0.0, 9.867238722155253, 0.09949874371066195, 1.3592645070036962, 0.0, 3.152713117300716, 0.710703876449256, 0.6519969325081211, 0.0, 3.6193922141707726, 0.0, 0.6383572667401852, 0.6114736298484174, 1.3114877048604006, 0.49759421218498906, 0.374699879903904, 0.0, 0.805977667184396, 0.0, 0.374699879903904, 0.25980762113533173, 0.8471127433818955, 0.2374868417407583, 0.19595917942265417, 0.0, 1.7468829382646114], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 5.42235188824923, 0.0, 4.051222037854751, 0.0, 7.238584115695553, 0.0, 3.4941522577014306, 0.0, 0.7168681887209112, 0.0, 0.4702127178203501, 0.2551470164434616, 0.1705872210923199, 0.0, 3.1980462785894765, 0.0, 0.3491418050019222, 0.1705872210923198, 0.1705872210923198, 0.17058722109231975, 0.2764054992217049, 0.0, 0.4749736834815162, 0.0, 0.38091993909481814, 0.09949874371066197, 0.13999999999999996, 0.13999999999999987, 0.17058722109231964, 0.0, 0.6421837743200925], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1705872210923198, 12.989549645772943, 0.0, 10.325773578768809, 0.0, 3.4538529210144415, 0.0, 24.452721729901562, 0.0, 0.8388086790204303, 0.0, 1.010890696366329, 0.8627861844049198, 0.5070502933634887, 0.0, 4.813512231209141, 0.0, 0.48989794855663527, 0.3648287269390938, 0.6641535966928129, 0.19595917942265403, 0.25514701644346166, 0.0, 0.5156549233741495, 0.0, 0.19595917942265415, 0.19595917942265403, 0.21794494717703358, 0.13999999999999985, 0.2598076211353318, 0.0, 1.0926573113286713], [0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.0904305776561927, 0.0, 1.1666619047521862, 0.0, 0.9917661014573951, 0.0, 0.8515280382935135, 0.0, 0.3192177939902474, 0.0, 0.17058722109231983, 0.13999999999999996, 0.13999999999999987, 0.0, 0.46249324319388735, 0.0, 0.09949874371066195, 0.13999999999999987, 0.19595917942265428, 0.09949874371066197, 0.09949874371066196, 0.0, 0.2416609194718911, 0.0, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.17058722109231977], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.3328165665236913, 0.0, 2.893769168403035, 0.0, 0.7123903424387503, 0.0, 1.1300884921102416, 0.0, 0.2917190429162962, 0.0, 0.21794494717703403, 0.0, 0.13999999999999987, 0.0, 0.4409081537009724, 0.0, 0.09949874371066199, 0.09949874371066199, 0.27640549922170476, 0.13999999999999987, 0.13999999999999987, 0.0, 0.17058722109231977, 0.0, 0.09949874371066199, 0.0, 0.19899748742132392, 0.0, 0.09949874371066195, 0.0, 0.41231056256176607], [0.0, 0.780768851837726, 0.0, 0.5156549233741492, 0.0, 0.5480875842417889, 0.0, 0.6575712889109434, 0.0, 0.09949874371066199, 0.0, 0.1705872210923198, 0.09949874371066196, 0.0, 0.0, 0.3316624790355398, 0.0, 0.09949874371066199, 0.0, 0.17058722109231983, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.17058722109231975], [0.0, 1.0246462804304706, 0.0, 0.6954135460285487, 0.0, 0.2374868417407583, 0.0, 0.4013726448077897, 0.0, 0.22158519806160326, 0.0, 0.13999999999999987, 0.09949874371066199, 0.1399999999999999, 0.0, 0.2551470164434615, 0.0, 0.0, 0.13999999999999987, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.19595917942265398], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 3.510826113609161, 0.0, 3.8737449580477037, 0.0, 2.9955133116045403, 0.0, 4.926205436235884, 0.0, 0.7000000000000003, 0.0, 0.4176122603564227, 0.45825756949558405, 0.1399999999999999, 0.0, 3.5496478698597658, 0.0, 0.13999999999999993, 0.09949874371066197, 0.13999999999999996, 0.17058722109231977, 0.0, 0.0, 0.21794494717703364, 0.0, 0.13999999999999996, 0.0, 0.19595917942265415, 0.0, 0.1399999999999999, 0.0, 0.5450688029964661], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6837397165588673, 0.0, 0.6538348415311012, 0.0, 0.2416609194718911, 0.0, 0.39127995093027684, 0.0, 0.13999999999999987, 0.0, 0.2416609194718911, 0.0, 0.09949874371066193, 0.0, 0.2917190429162964, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.4242640687119282, 0.0, 0.46946778377222037, 0.0, 0.22158519806160315, 0.0, 0.3192177939902474, 0.0, 0.0, 0.0, 0.17058722109232005, 0.09949874371066195, 0.0, 0.0, 0.24166091947189142, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.6371028174478589, 0.0, 1.2922461065911548, 0.0, 0.2551470164434615, 0.0, 0.45552167895721546, 0.0, 0.19899748742132398, 0.0, 0.2179449471770337, 0.09949874371066199, 0.09949874371066196, 0.0, 0.3192177939902475, 0.0, 0.13999999999999993, 0.13999999999999987, 0.13999999999999993, 0.0, 0.17058722109231977, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.3973663297261107, 0.0, 0.40049968789001583, 0.0, 0.13999999999999999, 0.0, 0.27129319932501084, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.21794494717703375, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.36482872693909374, 0.0, 0.46303347611160933, 0.0, 0.13999999999999993, 0.0, 0.23748684174075815, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.17058722109231972, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7512655988397182, 0.0, 0.8657944328765353, 0.0, 0.41231056256176596, 0.0, 0.46249324319388724, 0.0, 0.22158519806160326, 0.0, 0.13999999999999993, 0.0, 0.13999999999999987, 0.0, 0.28618176042508386, 0.0, 0.09949874371066195, 0.09949874371066199, 0.13999999999999987, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.1705872210923197], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4160528812542942, 0.0, 0.40049968789001594, 0.0, 0.29580398915498085, 0.0, 0.23748684174075815, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.13999999999999996, 0.0, 0.259807621135332, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.29171904291629625, 0.0, 0.21794494717703364, 0.0, 0.0, 0.0, 0.19595917942265403, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.39127995093027673, 0.0, 0.6800000000000003, 0.0, 0.24166091947189147, 0.0, 0.38157568056677843, 0.0, 0.0, 0.0, 0.2598076211353319, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.2416609194718912, 0.0, 0.1959591794226541, 0.0, 0.09949874371066199, 0.0, 0.17058722109231972, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2551470164434616, 0.0, 0.17058722109231977, 0.0, 0.1959591794226542, 0.0, 0.17058722109231977, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.0979981785048643, 0.0, 1.8872996582419026, 0.0, 0.42473521163190603, 0.0, 1.1863810517704676, 0.0, 0.33166247903553975, 0.0, 0.5722761571129801, 0.09949874371066193, 0.1705872210923198, 0.0, 0.5723635208501671, 0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066199, 0.0, 0.0, 0.22158519806160326, 0.0, 0.19899748742132392, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.44933283877321867]]</t>
         </is>
       </c>
     </row>
@@ -824,58 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01965226951616627</v>
+        <v>0.01754633715039158</v>
       </c>
       <c r="C6" t="n">
-        <v>0.404572857038192</v>
+        <v>0.467821074817127</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01943390751888012</v>
+        <v>0.004060707349006622</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4956019146892341</v>
+        <v>0.3743715206168174</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0326375297401014</v>
+        <v>0.003809057848922195</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9762943924204969</v>
+        <v>1.076885880684676</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0223870255060403</v>
+        <v>0.003738034614582685</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2416874163433603</v>
+        <v>0.07853955319785165</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03916529988836672</v>
+        <v>0.03865890671820203</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01595148142849313</v>
+        <v>0.01433487103826897</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01530928692332147</v>
+        <v>0.002335063757344756</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01114350476485375</v>
+        <v>0.003160551131617203</v>
       </c>
       <c r="N6" t="n">
-        <v>0.09411225671534532</v>
+        <v>0.1292106948065163</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08745641967734487</v>
+        <v>0.1114755219791214</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03044006038980774</v>
+        <v>0.03062398883965904</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.006622022943179404</v>
+        <v>0.01613173164815061</v>
       </c>
       <c r="R6" t="n">
-        <v>1.087767601153297</v>
+        <v>0.9811792717875025</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05904869297642754</v>
+        <v>0.07666863425047366</v>
       </c>
     </row>
     <row r="7">
@@ -885,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.954785892120652</v>
+        <v>0.9519384579522855</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7827643056796002</v>
+        <v>0.6064795592520151</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9277299292661801</v>
+        <v>0.9568611492373987</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6994810273505668</v>
+        <v>0.5340613830363964</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9382591021680269</v>
+        <v>0.9663275340360629</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7110187284069914</v>
+        <v>0.7480004370964571</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9060978811111953</v>
+        <v>0.8517861172181361</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5837645845417434</v>
+        <v>0.6158604083419905</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9442234843510576</v>
+        <v>0.9356219508716827</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8911593540232631</v>
+        <v>0.9557334928264647</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9148229638723806</v>
+        <v>0.9621249856124632</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9350050522646316</v>
+        <v>0.9603605356546643</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8176633144962518</v>
+        <v>0.773909970060116</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9377095092730858</v>
+        <v>0.8239112912966372</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9223468643994498</v>
+        <v>0.9145756233558171</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9716903598280066</v>
+        <v>0.9636698503264139</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7870677722974628</v>
+        <v>0.6548845250822544</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9590588852082771</v>
+        <v>0.9451745096350327</v>
       </c>
     </row>
     <row r="8">
@@ -946,58 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06356611017545069</v>
+        <v>0.02425433480321716</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1869838471735626</v>
+        <v>0.02205892602962883</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03261673357120658</v>
+        <v>0.08733049072289881</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1632449816918798</v>
+        <v>0.02238938584975283</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05263958928529883</v>
+        <v>0.1358397108646124</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4347369319217896</v>
+        <v>0.636473715034487</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01455234139821075</v>
+        <v>0.08955189577226425</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2094841760142023</v>
+        <v>0.1365915033359018</v>
       </c>
       <c r="J8" t="n">
-        <v>3.028441594703338</v>
+        <v>3.920141766872882</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03903788197396787</v>
+        <v>0.04679177718777443</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2325063725959804</v>
+        <v>0.5955500366827191</v>
       </c>
       <c r="M8" t="n">
-        <v>0.244904430199511</v>
+        <v>0.5160859825106969</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3219342663706777</v>
+        <v>1.324755630560734</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4870307065930481</v>
+        <v>3.377341675860643</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5577965462888093</v>
+        <v>0.987709788769406</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2030260540691422</v>
+        <v>0.1734978606190656</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1214379665333383</v>
+        <v>6.050551787192698</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2571913703695927</v>
+        <v>0.1638922431122313</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9430728090716054</v>
+        <v>0.9558460684708252</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7848128411348617</v>
+        <v>0.8647258281082916</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9248964073702913</v>
+        <v>0.9482482143232298</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8346050953572566</v>
+        <v>0.8501516024514236</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9331919002458097</v>
+        <v>0.9528261130495443</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7639855343295827</v>
+        <v>0.7708411526643036</v>
       </c>
       <c r="H9" t="n">
-        <v>0.775804109699429</v>
+        <v>0.6926445291853394</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5049834827626958</v>
+        <v>0.6731175744750733</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6165056548324986</v>
+        <v>0.6180800539730942</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9108406644493224</v>
+        <v>0.9483199505570277</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9128825699352399</v>
+        <v>0.9451907939339066</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9335761997525223</v>
+        <v>0.9493111591360844</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6030050818828047</v>
+        <v>0.4142533403286783</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8771591384216697</v>
+        <v>0.695577073923682</v>
       </c>
       <c r="P9" t="n">
-        <v>0.895306662478446</v>
+        <v>0.8544382114990239</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9488699251841829</v>
+        <v>0.9337242716034636</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7393116770102404</v>
+        <v>0.4505998965435205</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9544800260183596</v>
+        <v>0.9331016819575385</v>
       </c>
     </row>
   </sheetData>

--- a/0_data/9_evaluation/distances/d/d_kl_oa_metrics.xlsx
+++ b/0_data/9_evaluation/distances/d/d_kl_oa_metrics.xlsx
@@ -678,69 +678,69 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.9763</v>
+        <v>15.1499</v>
       </c>
       <c r="C4" t="n">
-        <v>14.09</v>
+        <v>13.67</v>
       </c>
       <c r="D4" t="n">
-        <v>3.5236</v>
+        <v>3.440699999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>22.64</v>
+        <v>21.72</v>
       </c>
       <c r="F4" t="n">
-        <v>6.379700000000001</v>
+        <v>6.117999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0143</v>
+        <v>0.0147</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3775</v>
+        <v>2.3254</v>
       </c>
       <c r="I4" t="n">
-        <v>3.51</v>
+        <v>2.33</v>
       </c>
       <c r="J4" t="n">
-        <v>286.12</v>
+        <v>276.08</v>
       </c>
       <c r="K4" t="n">
-        <v>6.0166</v>
+        <v>5.966199999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>2.800099999999999</v>
+        <v>2.8123</v>
       </c>
       <c r="M4" t="n">
-        <v>5.8088</v>
+        <v>6.132300000000002</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[70.82, 21.59, 95.93, 40.61, 12.01, 22.11, 0.44, 12.02, 2.38, 3.08, 1.54, 0.1, 1.55, 0.12, 0.41, 0.09, 0.05, 0.1, 0.01, 0.02, 0.0, 0.03, 0.02, 0.0, 0.03, 0.01, 0.02, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[69.19, 19.47, 94.63, 39.67, 12.31, 20.18, 0.39, 11.19, 1.88, 2.72, 1.27, 0.13, 1.36, 0.07, 0.38, 0.07, 0.04, 0.03, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[52.69, 0.58, 49.13, 0.77, 54.52, 12.1, 0.69, 46.91, 0.97, 48.9, 0.5, 18.36]</t>
+          <t>[54.12, 0.49, 46.81, 0.37, 51.91, 9.83, 0.54, 46.13, 0.61, 48.01, 0.32, 16.94]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[10.07, 79.38, 98.04, 36.78, 30.91, 3.87, 4.93, 2.6, 5.33, 1.13, 1.52, 0.82, 2.63, 0.68, 1.4, 0.6, 2.75, 0.46, 0.44, 0.1, 0.46, 0.06, 0.03, 0.03, 0.06, 0.02, 0.0, 0.0, 0.03, 0.01, 0.0, 0.0]</t>
+          <t>[11.11, 70.46, 101.09, 32.51, 31.05, 3.51, 5.28, 2.26, 5.49, 1.03, 1.47, 0.77, 2.37, 0.73, 1.21, 0.71, 2.58, 0.38, 0.47, 0.04, 0.48, 0.04, 0.04, 0.01, 0.12, 0.01, 0.0, 0.0, 0.03, 0.01, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.05, 108.09, 0.0, 77.53, 0.0, 16.17, 0.0, 49.52, 0.01, 3.91, 0.0, 4.36, 1.44, 1.4, 0.0, 13.13, 0.0, 1.05, 0.56, 1.34, 0.44, 0.46, 0.01, 1.38, 0.0, 0.47, 0.17, 0.62, 0.14, 0.21, 0.0, 3.42, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[0.1, 91.97, 0.0, 75.18, 0.0, 13.49, 0.0, 62.42, 0.01, 3.67, 0.0, 3.64, 1.42, 1.31, 0.0, 12.13, 0.0, 0.94, 0.41, 1.22, 0.62, 0.5, 0.0, 1.21, 0.02, 0.48, 0.09, 0.54, 0.21, 0.27, 0.0, 4.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[[13.53, 0.01, 13.21, 0.04, 4.7, 0.82, 0.02, 4.7, 0.07, 8.93, 0.06, 6.45], [0.05, 0.06, 0.06, 0.07, 0.07, 0.07, 0.03, 0.03, 0.03, 0.04, 0.07, 0.0], [14.58, 0.04, 12.54, 0.04, 13.7, 0.99, 0.05, 3.28, 0.05, 2.06, 0.03, 1.6], [0.04, 0.11, 0.08, 0.14, 0.07, 0.15, 0.02, 0.06, 0.05, 0.01, 0.03, 0.0], [4.83, 0.04, 15.65, 0.07, 13.71, 3.87, 0.11, 9.92, 0.04, 5.04, 0.03, 0.99], [0.43, 0.09, 1.01, 0.18, 4.57, 3.2, 0.08, 1.78, 0.11, 0.43, 0.08, 0.1], [0.02, 0.03, 0.06, 0.02, 0.17, 0.03, 0.1, 0.08, 0.04, 0.1, 0.02, 0.02], [4.08, 0.0, 3.32, 0.04, 10.5, 2.24, 0.13, 11.9, 0.12, 13.19, 0.01, 1.23], [0.06, 0.06, 0.05, 0.08, 0.06, 0.06, 0.04, 0.08, 0.24, 0.13, 0.07, 0.04], [9.21, 0.07, 2.28, 0.02, 5.64, 0.49, 0.07, 12.81, 0.1, 13.5, 0.0, 4.49], [0.02, 0.05, 0.03, 0.07, 0.02, 0.06, 0.02, 0.04, 0.05, 0.02, 0.08, 0.04], [5.68, 0.02, 0.8, 0.0, 1.06, 0.11, 0.02, 1.96, 0.07, 5.18, 0.02, 3.4]]</t>
+          <t>[[14.13, 0.05, 13.75, 0.03, 4.8, 0.67, 0.06, 4.62, 0.02, 9.33, 0.03, 6.4], [0.03, 0.11, 0.04, 0.06, 0.07, 0.04, 0.02, 0.03, 0.0, 0.02, 0.03, 0.03], [14.49, 0.08, 10.81, 0.03, 14.1, 0.7, 0.05, 2.64, 0.02, 2.38, 0.06, 1.31], [0.03, 0.04, 0.03, 0.04, 0.06, 0.06, 0.0, 0.01, 0.04, 0.02, 0.03, 0.0], [4.99, 0.04, 15.54, 0.09, 13.18, 3.15, 0.12, 9.23, 0.07, 4.58, 0.02, 0.7], [0.52, 0.03, 0.73, 0.05, 3.73, 2.49, 0.05, 1.54, 0.09, 0.49, 0.0, 0.06], [0.02, 0.0, 0.07, 0.0, 0.15, 0.03, 0.01, 0.07, 0.04, 0.11, 0.0, 0.04], [4.01, 0.03, 3.19, 0.05, 9.68, 1.93, 0.09, 13.36, 0.06, 12.55, 0.04, 0.99], [0.03, 0.03, 0.02, 0.01, 0.06, 0.08, 0.02, 0.07, 0.1, 0.1, 0.04, 0.04], [10.28, 0.02, 2.11, 0.0, 5.02, 0.52, 0.08, 12.39, 0.11, 13.15, 0.01, 4.2], [0.02, 0.04, 0.01, 0.01, 0.01, 0.04, 0.0, 0.04, 0.05, 0.02, 0.06, 0.02], [5.35, 0.02, 0.48, 0.0, 0.74, 0.12, 0.04, 1.91, 0.01, 5.06, 0.0, 3.13]]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[[0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 63.56, 0.0, 17.1, 0.0, 5.45, 0.0, 13.48, 0.0, 1.16, 0.0, 0.93, 0.41, 0.54, 0.0, 3.01, 0.0, 0.32, 0.11, 0.14, 0.1, 0.12, 0.01, 0.37, 0.0, 0.12, 0.02, 0.11, 0.04, 0.04, 0.0, 0.61], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 16.62, 0.0, 36.08, 0.0, 2.8, 0.0, 10.76, 0.01, 1.18, 0.0, 1.98, 0.43, 0.43, 0.0, 3.2, 0.0, 0.35, 0.19, 0.6, 0.18, 0.14, 0.0, 0.48, 0.0, 0.14, 0.05, 0.32, 0.06, 0.04, 0.0, 1.22], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 4.59, 0.0, 3.74, 0.0, 2.77, 0.0, 2.53, 0.0, 0.31, 0.0, 0.17, 0.07, 0.03, 0.0, 1.15, 0.0, 0.09, 0.03, 0.03, 0.03, 0.06, 0.0, 0.12, 0.0, 0.07, 0.01, 0.02, 0.02, 0.03, 0.0, 0.26], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.03, 13.46, 0.0, 10.28, 0.0, 2.53, 0.0, 16.38, 0.0, 0.58, 0.0, 0.59, 0.34, 0.23, 0.0, 2.99, 0.0, 0.2, 0.13, 0.33, 0.04, 0.07, 0.0, 0.21, 0.0, 0.04, 0.04, 0.05, 0.02, 0.05, 0.0, 0.69], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.51, 0.0, 0.83, 0.0, 0.42, 0.0, 0.57, 0.0, 0.09, 0.0, 0.03, 0.02, 0.02, 0.0, 0.19, 0.0, 0.01, 0.02, 0.04, 0.01, 0.01, 0.0, 0.04, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.0, 0.03], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.06, 0.0, 1.69, 0.0, 0.25, 0.0, 0.73, 0.0, 0.07, 0.0, 0.05, 0.0, 0.02, 0.0, 0.16, 0.0, 0.01, 0.01, 0.06, 0.02, 0.02, 0.0, 0.03, 0.0, 0.01, 0.0, 0.02, 0.0, 0.01, 0.0, 0.1], [0.0, 0.48, 0.0, 0.29, 0.0, 0.14, 0.0, 0.26, 0.0, 0.01, 0.0, 0.03, 0.01, 0.0, 0.0, 0.1, 0.0, 0.01, 0.0, 0.03, 0.01, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.01, 0.0, 0.03], [0.0, 0.51, 0.0, 0.42, 0.0, 0.06, 0.0, 0.17, 0.0, 0.03, 0.0, 0.02, 0.01, 0.02, 0.0, 0.07, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.04], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 3.21, 0.0, 3.29, 0.0, 1.13, 0.0, 2.85, 0.0, 0.3, 0.0, 0.16, 0.1, 0.02, 0.0, 1.6, 0.0, 0.02, 0.01, 0.02, 0.03, 0.0, 0.0, 0.05, 0.0, 0.02, 0.0, 0.04, 0.0, 0.02, 0.0, 0.23], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.35, 0.0, 0.35, 0.0, 0.04, 0.0, 0.13, 0.0, 0.02, 0.0, 0.04, 0.0, 0.01, 0.0, 0.07, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.2, 0.0, 0.14, 0.0, 0.03, 0.0, 0.09, 0.0, 0.0, 0.0, 0.03, 0.01, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.29, 0.0, 0.51, 0.0, 0.07, 0.0, 0.15, 0.0, 0.02, 0.0, 0.05, 0.01, 0.01, 0.0, 0.09, 0.0, 0.02, 0.02, 0.02, 0.0, 0.03, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01], [0.0, 0.11, 0.0, 0.14, 0.0, 0.02, 0.0, 0.08, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.13, 0.0, 0.16, 0.0, 0.02, 0.0, 0.06, 0.0, 0.0, 0.0, 0.01, 0.01, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.34, 0.0, 0.48, 0.0, 0.1, 0.0, 0.19, 0.0, 0.03, 0.0, 0.02, 0.0, 0.02, 0.0, 0.09, 0.0, 0.01, 0.01, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.03], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13, 0.0, 0.14, 0.0, 0.05, 0.0, 0.06, 0.0, 0.0, 0.0, 0.01, 0.0, 0.02, 0.0, 0.05, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.0, 0.05, 0.0, 0.0, 0.0, 0.04, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.13, 0.0, 0.24, 0.0, 0.04, 0.0, 0.12, 0.0, 0.0, 0.0, 0.05, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.04, 0.0, 0.04, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.07, 0.0, 0.03, 0.0, 0.04, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.88, 0.0, 1.09, 0.0, 0.14, 0.0, 0.65, 0.0, 0.1, 0.0, 0.15, 0.01, 0.03, 0.0, 0.18, 0.0, 0.0, 0.0, 0.02, 0.01, 0.0, 0.0, 0.03, 0.0, 0.02, 0.01, 0.01, 0.0, 0.0, 0.0, 0.09]]</t>
+          <t>[[0.0, 0.01, 0.0, 0.02, 0.0, 0.02, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 49.37, 0.0, 15.4, 0.0, 4.35, 0.0, 15.71, 0.0, 1.0, 0.0, 0.57, 0.31, 0.3, 0.0, 2.83, 0.0, 0.19, 0.12, 0.19, 0.12, 0.09, 0.0, 0.17, 0.0, 0.07, 0.04, 0.05, 0.01, 0.04, 0.0, 0.7], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.04, 14.54, 0.0, 34.63, 0.0, 2.66, 0.0, 13.44, 0.01, 1.12, 0.0, 1.32, 0.45, 0.41, 0.0, 3.12, 0.0, 0.3, 0.13, 0.44, 0.09, 0.16, 0.0, 0.43, 0.01, 0.15, 0.01, 0.23, 0.08, 0.04, 0.0, 1.16], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 3.76, 0.0, 2.91, 0.0, 1.61, 0.0, 3.08, 0.0, 0.33, 0.0, 0.13, 0.08, 0.07, 0.0, 0.73, 0.0, 0.02, 0.01, 0.05, 0.04, 0.08, 0.0, 0.1, 0.01, 0.03, 0.01, 0.02, 0.04, 0.05, 0.0, 0.25], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.02, 15.71, 0.0, 12.92, 0.0, 2.83, 0.0, 22.3, 0.0, 0.7, 0.0, 1.04, 0.33, 0.29, 0.0, 3.33, 0.0, 0.22, 0.09, 0.33, 0.19, 0.07, 0.0, 0.22, 0.0, 0.14, 0.02, 0.11, 0.06, 0.09, 0.0, 1.18], [0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.34, 0.0, 0.93, 0.0, 0.24, 0.0, 0.61, 0.0, 0.05, 0.0, 0.03, 0.02, 0.03, 0.0, 0.19, 0.0, 0.02, 0.0, 0.0, 0.01, 0.02, 0.0, 0.01, 0.0, 0.02, 0.0, 0.02, 0.0, 0.01, 0.0, 0.08], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.83, 0.0, 1.28, 0.0, 0.22, 0.0, 0.69, 0.0, 0.04, 0.0, 0.07, 0.03, 0.04, 0.0, 0.15, 0.0, 0.03, 0.03, 0.03, 0.03, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.11], [0.01, 0.39, 0.0, 0.38, 0.0, 0.07, 0.0, 0.31, 0.0, 0.03, 0.0, 0.02, 0.03, 0.02, 0.0, 0.06, 0.0, 0.02, 0.01, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.04], [0.0, 0.36, 0.0, 0.29, 0.0, 0.09, 0.0, 0.29, 0.0, 0.06, 0.0, 0.01, 0.02, 0.0, 0.0, 0.06, 0.0, 0.01, 0.0, 0.03, 0.02, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.01, 2.83, 0.0, 3.3, 0.0, 0.8, 0.0, 3.17, 0.0, 0.12, 0.0, 0.19, 0.09, 0.04, 0.0, 1.04, 0.0, 0.06, 0.0, 0.02, 0.04, 0.03, 0.0, 0.09, 0.0, 0.02, 0.01, 0.01, 0.0, 0.03, 0.0, 0.17], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.36, 0.0, 0.24, 0.0, 0.05, 0.0, 0.18, 0.0, 0.03, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.15, 0.0, 0.03, 0.0, 0.06, 0.0, 0.09, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.03, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.23, 0.0, 0.4, 0.0, 0.07, 0.0, 0.28, 0.0, 0.02, 0.0, 0.05, 0.01, 0.0, 0.0, 0.08, 0.0, 0.01, 0.0, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.03], [0.0, 0.16, 0.0, 0.08, 0.0, 0.03, 0.0, 0.18, 0.0, 0.01, 0.0, 0.02, 0.01, 0.02, 0.0, 0.05, 0.0, 0.01, 0.01, 0.0, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0], [0.0, 0.14, 0.0, 0.13, 0.0, 0.02, 0.0, 0.13, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.0, 0.0, 0.01], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.28, 0.0, 0.41, 0.0, 0.07, 0.0, 0.23, 0.0, 0.04, 0.0, 0.05, 0.0, 0.01, 0.0, 0.04, 0.0, 0.01, 0.0, 0.02, 0.01, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.12, 0.0, 0.13, 0.0, 0.01, 0.0, 0.13, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.03, 0.0, 0.01, 0.0, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01], [0.0, 0.12, 0.0, 0.19, 0.0, 0.0, 0.0, 0.14, 0.0, 0.0, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.01, 0.0, 0.02, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.02], [0.0, 0.06, 0.0, 0.1, 0.0, 0.01, 0.0, 0.03, 0.0, 0.0, 0.0, 0.0, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.05, 0.0, 0.05, 0.0, 0.02, 0.0, 0.09, 0.0, 0.01, 0.0, 0.01, 0.01, 0.0, 0.0, 0.02, 0.0, 0.01, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.82, 0.0, 1.05, 0.0, 0.21, 0.0, 1.01, 0.0, 0.08, 0.0, 0.05, 0.03, 0.06, 0.0, 0.28, 0.0, 0.0, 0.01, 0.05, 0.05, 0.01, 0.0, 0.05, 0.0, 0.02, 0.0, 0.05, 0.01, 0.0, 0.0, 0.15]]</t>
         </is>
       </c>
     </row>
@@ -751,69 +751,69 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.818781390705679</v>
+        <v>3.289220422835782</v>
       </c>
       <c r="C5" t="n">
-        <v>3.295739674185448</v>
+        <v>2.970033669842818</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6409095411990682</v>
+        <v>0.5510612579378086</v>
       </c>
       <c r="E5" t="n">
-        <v>4.008790341237615</v>
+        <v>3.530099148749224</v>
       </c>
       <c r="F5" t="n">
-        <v>1.397075126827473</v>
+        <v>1.269595211081075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02098833009079093</v>
+        <v>0.01905019684937665</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1684599358898133</v>
+        <v>0.1762522056599576</v>
       </c>
       <c r="I5" t="n">
-        <v>9.268759356030344</v>
+        <v>5.228871771233256</v>
       </c>
       <c r="J5" t="n">
-        <v>31.48595877530173</v>
+        <v>31.59831641084696</v>
       </c>
       <c r="K5" t="n">
-        <v>1.62252964225619</v>
+        <v>1.442760395907789</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7503392499396523</v>
+        <v>0.8391684634207842</v>
       </c>
       <c r="M5" t="n">
-        <v>1.882024059357372</v>
+        <v>1.962966049120565</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[10.458852709547067, 15.868267076149179, 17.66309995442476, 10.473676527370891, 4.796863558618277, 5.013771035857142, 0.8163332652783425, 3.828785708289249, 1.5923567439490436, 1.7186040847152675, 1.1867602959317443, 0.29999999999999977, 1.2359207094308275, 0.35440090293338716, 0.567362318100171, 0.28618176042508353, 0.2179449471770336, 0.2999999999999999, 0.09949874371066199, 0.13999999999999987, 0.0, 0.17058722109231972, 0.1399999999999999, 0.0, 0.2215851980616036, 0.09949874371066199, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[12.905576314136455, 14.556410958749414, 17.20968041539412, 10.735972242885131, 4.5468560566615706, 5.8041019977254, 1.0089103032480153, 3.5516052708599246, 1.3511476603243624, 1.8497567407634974, 1.1032225523438144, 0.4394314508543964, 1.3455110553243337, 0.2917190429162964, 0.7318469785412789, 0.25514701644346166, 0.2416609194718911, 0.17058722109231983, 0.1399999999999999, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.1399999999999999, 0.0, 0.0, 0.09949874371066199, 0.0, 0.19899748742132398, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[15.925887730359022, 2.000899797591077, 11.708676270185286, 2.9760880363322575, 11.821573499327407, 14.55094498649486, 2.133986879059943, 14.681345306204058, 2.095017899684869, 18.60671921645511, 1.6522711641858305, 15.467721228416293]</t>
+          <t>[15.653293583140899, 1.6940779202858396, 13.49051148029607, 1.016415269464208, 11.363181772725454, 11.261487468358698, 1.052805775060149, 17.05969225982696, 1.605584005899409, 16.791363851694715, 1.1214276615100955, 16.3498134545933]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[11.71260432184064, 53.970506760637335, 72.03234273574611, 31.192813274855475, 23.264606164730147, 3.0287125977880422, 4.821317247392046, 2.4041630560342613, 4.261584212473103, 1.2219247112649785, 1.6998823488700616, 1.0137060717979343, 2.161735413967214, 1.0571660229122015, 1.6911534525287764, 0.8831760866327842, 2.511473670974872, 0.9210863151735567, 0.8284926070883198, 0.2999999999999999, 0.8052328855678956, 0.2764054992217047, 0.17058722109231983, 0.17058722109231977, 0.23748684174075793, 0.13999999999999987, 0.0, 0.0, 0.17058722109231986, 0.09949874371066199, 0.0, 0.0]</t>
+          <t>[11.46986922331724, 45.45842496171638, 60.78915939540538, 24.644064194040727, 22.665116368551917, 2.889619352094666, 4.479017749462487, 2.2698898651696746, 4.304637034640669, 1.1615076409563567, 1.6997352735058482, 1.1389029809426257, 2.9074215380642685, 0.9257969539807309, 1.2751078385768007, 1.133975308373158, 3.2223593840538647, 0.718052922840649, 0.8538735269347566, 0.19595917942265415, 1.3891004283348272, 0.1959591794226543, 0.19595917942265428, 0.09949874371066197, 0.3815756805667785, 0.09949874371066196, 0.0, 0.0, 0.17058722109231972, 0.09949874371066199, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.2598076211353318, 82.77851110040575, 0.0, 63.28103270333063, 0.0, 19.168231530321204, 0.0, 40.58878662882151, 0.09949874371066195, 3.01029898847274, 0.0, 4.34630877872247, 1.7223240113288794, 1.6186414056238643, 0.0, 12.909419041924389, 0.0, 1.2359207094308275, 0.8639444426582066, 2.3204309944490906, 0.8867919710958151, 0.7269112738154496, 0.09949874371066199, 1.7016462617124632, 0.0, 0.8179853299418032, 0.4255584566190644, 1.1556816170554933, 0.40049968789001594, 0.43116122274620217, 0.0, 4.06, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+          <t>[0.3316624790355398, 72.19881647229407, 0.0, 60.615407282307345, 0.0, 13.090832670231482, 0.0, 42.24054450406623, 0.09949874371066197, 2.983471132757949, 0.0, 3.226515147957623, 1.6743954132760877, 1.4401041628993383, 0.0, 11.26557144578117, 0.0, 1.0470912090166742, 0.6647555941848102, 1.6767826334978548, 1.2229472596968354, 0.8426149773176358, 0.0, 1.7905027227010855, 0.13999999999999993, 0.9431860898041285, 0.3766961640367473, 0.9531002045955089, 0.5346961754117942, 0.5450688029964661, 0.0, 4.744459927114993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[7.9428647225040905, 0.09949874371066199, 5.368975693742708, 0.195959179422654, 2.220360331117451, 1.2114454176726244, 0.13999999999999987, 3.0248966924508345, 0.25514701644346155, 4.648128655706509, 0.23748684174075804, 4.827784170817914], [0.2598076211353317, 0.3411744421846401, 0.2374868417407581, 0.3809199390948177, 0.3536947836765472, 0.43023249528597846, 0.2215851980616033, 0.17058722109231989, 0.2215851980616033, 0.24166091947189125, 0.38091993909481764, 0.0], [5.692416007285482, 0.24166091947189114, 5.634571855962084, 0.19595917942265395, 4.56618002273235, 1.3152566289511711, 0.21794494717703367, 1.9903768487399556, 0.21794494717703367, 1.4820256408038293, 0.17058722109231975, 1.8601075237738285], [0.19595917942265417, 0.6464518543557579, 0.27129319932501095, 1.0101485039339504, 0.2551470164434616, 0.7399324293474374, 0.19899748742132392, 0.3104834939252005, 0.3570714214271421, 0.09949874371066196, 0.17058722109231975, 0.0], [2.1819945004513643, 0.2416609194718912, 4.418993097980579, 0.25514701644346155, 5.325964701347541, 4.500344431263016, 0.48774993593028804, 4.330542691164699, 0.1959591794226541, 2.8702613121456384, 0.17058722109231972, 1.3819913169047044], [0.7778817390837758, 0.4493328387732186, 1.4317471843869654, 0.6690291473471096, 4.764986883507656, 5.836094584565942, 0.30594117081556693, 2.3646564232463048, 0.5812916651733436, 0.7246378405796923, 0.3919183588453079, 0.33166247903553975], [0.13999999999999987, 0.17058722109231975, 0.23748684174075807, 0.13999999999999987, 0.7078841713161836, 0.1705872210923198, 0.41231056256176596, 0.3655133376499411, 0.24166091947189136, 0.36055512754639885, 0.13999999999999987, 0.13999999999999987], [2.7006665843824558, 0.0, 1.6178998732925343, 0.19595917942265395, 4.028647415696738, 2.4944738924270187, 0.5030904491242104, 6.754998149518622, 0.3815756805667785, 7.003848941831912, 0.09949874371066199, 1.2872839624573906], [0.2374868417407581, 0.3104834939252002, 0.2179449471770336, 0.4399999999999995, 0.23748684174075824, 0.2764054992217046, 0.1959591794226542, 0.271293199325011, 0.8260750571225349, 0.39127995093027673, 0.35369478367654705, 0.19595917942265415], [4.854472164921743, 0.2917190429162964, 1.51710250148103, 0.13999999999999987, 3.4249671531271657, 0.7809609465267767, 0.2917190429162963, 6.205956815834283, 0.2999999999999999, 9.256889326334198, 0.0, 4.471006598071624], [0.13999999999999987, 0.21794494717703364, 0.17058722109231986, 0.5148786264742395, 0.13999999999999996, 0.3411744421846402, 0.13999999999999993, 0.19595917942265428, 0.25980762113533207, 0.13999999999999996, 0.46216880033165325, 0.1959591794226539], [4.68162364997444, 0.13999999999999996, 1.0583005244258368, 0.0, 1.2314219423089716, 0.39736632972611063, 0.13999999999999993, 1.72580416038437, 0.2551470164434616, 4.699744673915808, 0.13999999999999996, 4.617358552246078]]</t>
+          <t>[[8.424553400626055, 0.25980762113533173, 5.17179852662495, 0.17058722109231989, 2.0396078054371136, 1.010494928240612, 0.23748684174075793, 3.1009030942614144, 0.13999999999999987, 4.764567136687236, 0.22158519806160304, 4.9779513858614575], [0.1705872210923197, 0.7196526940128822, 0.24166091947189136, 0.3104834939252008, 0.2917190429162961, 0.24166091947189125, 0.1399999999999999, 0.1705872210923199, 0.0, 0.1399999999999999, 0.22158519806160304, 0.1705872210923199], [5.703498926097909, 0.39191835884530807, 5.833858071636642, 0.1705872210923197, 5.6859475903318, 1.0999999999999994, 0.21794494717703364, 1.8575252353602099, 0.1399999999999999, 1.7480274597385483, 0.27640549922170465, 1.6952580924449243], [0.17058722109231989, 0.24166091947189114, 0.17058722109231964, 0.24166091947189114, 0.23748684174075818, 0.2764054992217049, 0.0, 0.09949874371066196, 0.24166091947189128, 0.1399999999999999, 0.17058722109231983, 0.0], [2.3811551818392687, 0.1959591794226542, 5.406329623691104, 0.3192177939902476, 5.2638009080891335, 3.675255093187409, 0.3815756805667784, 4.08131106386171, 0.25514701644346155, 2.3459752769370783, 0.13999999999999987, 1.1445523142259593], [0.865794432876535, 0.29849623113198587, 0.9985489472229191, 0.2598076211353318, 4.265805902757415, 4.398852122997544, 0.25980762113533185, 2.3341807984815564, 0.349141805001922, 0.8425556361451741, 0.0, 0.2764054992217047], [0.13999999999999985, 0.0, 0.25514701644346155, 0.0, 0.38405728739343103, 0.22158519806160343, 0.09949874371066199, 0.2917190429162961, 0.3136877428271623, 0.39736632972611063, 0.0, 0.19595917942265417], [2.636266299143545, 0.22158519806160304, 1.9426528253910929, 0.2598076211353319, 3.767970275891251, 2.3334738052954447, 0.37669616403674755, 9.126357433280816, 0.23748684174075807, 6.226355274155176, 0.19595917942265417, 1.244949798184649], [0.1705872210923199, 0.22158519806160323, 0.19899748742132392, 0.09949874371066196, 0.237486841740758, 0.3655133376499408, 0.13999999999999987, 0.2551470164434615, 0.5000000000000007, 0.2999999999999998, 0.39799497484264784, 0.2416609194718914], [5.5083209783018265, 0.13999999999999987, 1.4414922823241207, 0.0, 2.572858332672051, 0.7678541528180992, 0.30594117081556693, 5.897279033588289, 0.39736632972611075, 7.568850639297885, 0.09949874371066195, 4.820788317277582], [0.1399999999999999, 0.19595917942265415, 0.09949874371066196, 0.09949874371066196, 0.09949874371066196, 0.31368774282716216, 0.0, 0.19595917942265398, 0.3278719262150996, 0.1399999999999999, 0.41999999999999926, 0.13999999999999987], [4.811184885243967, 0.13999999999999993, 0.8541662601625054, 0.0, 1.1280070921762861, 0.40693979898751564, 0.19595917942265415, 1.8444240293381569, 0.09949874371066199, 5.300603739198015, 0.0, 5.222365364468478]]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[[0.0, 0.0, 0.0, 0.17058722109231986, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 69.28510951135172, 0.0, 14.050978613605526, 0.0, 6.388074827363874, 0.0, 13.062526554996936, 0.0, 1.6716458955173485, 0.0, 1.2349493916756265, 0.7224264668462811, 1.268227108999015, 0.0, 2.9647765514453193, 0.0, 0.6144916598294886, 0.34336569426778807, 0.510294032886923, 0.3316624790355398, 0.35440090293338716, 0.09949874371066199, 0.7163099887618487, 0.0, 0.3249615361854386, 0.13999999999999996, 0.34336569426778807, 0.2416609194718912, 0.19595917942265428, 0.0, 0.9989494481704276], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 13.293441992200515, 0.0, 49.637421367351465, 0.0, 3.765634076752546, 0.0, 9.867238722155253, 0.09949874371066195, 1.3592645070036962, 0.0, 3.152713117300716, 0.710703876449256, 0.6519969325081211, 0.0, 3.6193922141707726, 0.0, 0.6383572667401852, 0.6114736298484174, 1.3114877048604006, 0.49759421218498906, 0.374699879903904, 0.0, 0.805977667184396, 0.0, 0.374699879903904, 0.25980762113533173, 0.8471127433818955, 0.2374868417407583, 0.19595917942265417, 0.0, 1.7468829382646114], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 5.42235188824923, 0.0, 4.051222037854751, 0.0, 7.238584115695553, 0.0, 3.4941522577014306, 0.0, 0.7168681887209112, 0.0, 0.4702127178203501, 0.2551470164434616, 0.1705872210923199, 0.0, 3.1980462785894765, 0.0, 0.3491418050019222, 0.1705872210923198, 0.1705872210923198, 0.17058722109231975, 0.2764054992217049, 0.0, 0.4749736834815162, 0.0, 0.38091993909481814, 0.09949874371066197, 0.13999999999999996, 0.13999999999999987, 0.17058722109231964, 0.0, 0.6421837743200925], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1705872210923198, 12.989549645772943, 0.0, 10.325773578768809, 0.0, 3.4538529210144415, 0.0, 24.452721729901562, 0.0, 0.8388086790204303, 0.0, 1.010890696366329, 0.8627861844049198, 0.5070502933634887, 0.0, 4.813512231209141, 0.0, 0.48989794855663527, 0.3648287269390938, 0.6641535966928129, 0.19595917942265403, 0.25514701644346166, 0.0, 0.5156549233741495, 0.0, 0.19595917942265415, 0.19595917942265403, 0.21794494717703358, 0.13999999999999985, 0.2598076211353318, 0.0, 1.0926573113286713], [0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 2.0904305776561927, 0.0, 1.1666619047521862, 0.0, 0.9917661014573951, 0.0, 0.8515280382935135, 0.0, 0.3192177939902474, 0.0, 0.17058722109231983, 0.13999999999999996, 0.13999999999999987, 0.0, 0.46249324319388735, 0.0, 0.09949874371066195, 0.13999999999999987, 0.19595917942265428, 0.09949874371066197, 0.09949874371066196, 0.0, 0.2416609194718911, 0.0, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.17058722109231977], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.3328165665236913, 0.0, 2.893769168403035, 0.0, 0.7123903424387503, 0.0, 1.1300884921102416, 0.0, 0.2917190429162962, 0.0, 0.21794494717703403, 0.0, 0.13999999999999987, 0.0, 0.4409081537009724, 0.0, 0.09949874371066199, 0.09949874371066199, 0.27640549922170476, 0.13999999999999987, 0.13999999999999987, 0.0, 0.17058722109231977, 0.0, 0.09949874371066199, 0.0, 0.19899748742132392, 0.0, 0.09949874371066195, 0.0, 0.41231056256176607], [0.0, 0.780768851837726, 0.0, 0.5156549233741492, 0.0, 0.5480875842417889, 0.0, 0.6575712889109434, 0.0, 0.09949874371066199, 0.0, 0.1705872210923198, 0.09949874371066196, 0.0, 0.0, 0.3316624790355398, 0.0, 0.09949874371066199, 0.0, 0.17058722109231983, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066195, 0.0, 0.09949874371066196, 0.0, 0.17058722109231975], [0.0, 1.0246462804304706, 0.0, 0.6954135460285487, 0.0, 0.2374868417407583, 0.0, 0.4013726448077897, 0.0, 0.22158519806160326, 0.0, 0.13999999999999987, 0.09949874371066199, 0.1399999999999999, 0.0, 0.2551470164434615, 0.0, 0.0, 0.13999999999999987, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.19595917942265398], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 3.510826113609161, 0.0, 3.8737449580477037, 0.0, 2.9955133116045403, 0.0, 4.926205436235884, 0.0, 0.7000000000000003, 0.0, 0.4176122603564227, 0.45825756949558405, 0.1399999999999999, 0.0, 3.5496478698597658, 0.0, 0.13999999999999993, 0.09949874371066197, 0.13999999999999996, 0.17058722109231977, 0.0, 0.0, 0.21794494717703364, 0.0, 0.13999999999999996, 0.0, 0.19595917942265415, 0.0, 0.1399999999999999, 0.0, 0.5450688029964661], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6837397165588673, 0.0, 0.6538348415311012, 0.0, 0.2416609194718911, 0.0, 0.39127995093027684, 0.0, 0.13999999999999987, 0.0, 0.2416609194718911, 0.0, 0.09949874371066193, 0.0, 0.2917190429162964, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.4242640687119282, 0.0, 0.46946778377222037, 0.0, 0.22158519806160315, 0.0, 0.3192177939902474, 0.0, 0.0, 0.0, 0.17058722109232005, 0.09949874371066195, 0.0, 0.0, 0.24166091947189142, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.6371028174478589, 0.0, 1.2922461065911548, 0.0, 0.2551470164434615, 0.0, 0.45552167895721546, 0.0, 0.19899748742132398, 0.0, 0.2179449471770337, 0.09949874371066199, 0.09949874371066196, 0.0, 0.3192177939902475, 0.0, 0.13999999999999993, 0.13999999999999987, 0.13999999999999993, 0.0, 0.17058722109231977, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.3973663297261107, 0.0, 0.40049968789001583, 0.0, 0.13999999999999999, 0.0, 0.27129319932501084, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.21794494717703375, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.09949874371066195], [0.0, 0.36482872693909374, 0.0, 0.46303347611160933, 0.0, 0.13999999999999993, 0.0, 0.23748684174075815, 0.0, 0.0, 0.0, 0.09949874371066196, 0.09949874371066199, 0.0, 0.0, 0.17058722109231972, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.7512655988397182, 0.0, 0.8657944328765353, 0.0, 0.41231056256176596, 0.0, 0.46249324319388724, 0.0, 0.22158519806160326, 0.0, 0.13999999999999993, 0.0, 0.13999999999999987, 0.0, 0.28618176042508386, 0.0, 0.09949874371066195, 0.09949874371066199, 0.13999999999999987, 0.09949874371066196, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.1705872210923197], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.4160528812542942, 0.0, 0.40049968789001594, 0.0, 0.29580398915498085, 0.0, 0.23748684174075815, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.13999999999999996, 0.0, 0.259807621135332, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.29171904291629625, 0.0, 0.21794494717703364, 0.0, 0.0, 0.0, 0.19595917942265403, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.39127995093027673, 0.0, 0.6800000000000003, 0.0, 0.24166091947189147, 0.0, 0.38157568056677843, 0.0, 0.0, 0.0, 0.2598076211353319, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.2416609194718912, 0.0, 0.1959591794226541, 0.0, 0.09949874371066199, 0.0, 0.17058722109231972, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.2551470164434616, 0.0, 0.17058722109231977, 0.0, 0.1959591794226542, 0.0, 0.17058722109231977, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.0979981785048643, 0.0, 1.8872996582419026, 0.0, 0.42473521163190603, 0.0, 1.1863810517704676, 0.0, 0.33166247903553975, 0.0, 0.5722761571129801, 0.09949874371066193, 0.1705872210923198, 0.0, 0.5723635208501671, 0.0, 0.0, 0.0, 0.13999999999999987, 0.09949874371066199, 0.0, 0.0, 0.22158519806160326, 0.0, 0.19899748742132392, 0.09949874371066199, 0.09949874371066196, 0.0, 0.0, 0.0, 0.44933283877321867]]</t>
+          <t>[[0.0, 0.09949874371066196, 0.0, 0.13999999999999993, 0.0, 0.13999999999999987, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.22158519806160315, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066197, 57.76653962286471, 0.0, 12.675172582651486, 0.0, 5.348597947125958, 0.0, 14.916631657314593, 0.0, 1.489966442575134, 0.0, 0.7906326580656782, 0.6433506042586733, 0.6403124237432857, 0.0, 3.1813676304382055, 0.0, 0.4170131892398608, 0.3544009029333872, 0.4624932431938874, 0.3544009029333872, 0.3192177939902476, 0.0, 0.44844174649557345, 0.0, 0.2917190429162964, 0.19595917942265412, 0.21794494717703405, 0.09949874371066193, 0.19595917942265395, 0.0, 1.1618950038622247], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.19595917942265398, 11.873011412442928, 0.0, 46.224377767580606, 0.0, 2.9940607876260628, 0.0, 10.431030629808351, 0.09949874371066197, 1.2351518125315604, 0.0, 2.116034026191449, 0.766485485837795, 0.7361385739111902, 0.0, 3.362380109386803, 0.0, 0.5567764362830019, 0.33630343441600447, 0.9624967532412775, 0.3491418050019218, 0.4176122603564223, 0.0, 0.777881739083776, 0.09949874371066199, 0.40926763859362303, 0.09949874371066199, 0.5631163290120437, 0.2712931993250109, 0.1959591794226541, 0.0, 1.5147276983009186], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066199, 4.766801862884591, 0.0, 3.5016995873432677, 0.0, 3.3967484452046226, 0.0, 3.843644104232336, 0.0, 0.7880989785553583, 0.0, 0.36482872693909374, 0.3059411708155667, 0.2551470164434616, 0.0, 1.302727907124125, 0.0, 0.13999999999999996, 0.09949874371066199, 0.21794494717703367, 0.19595917942265423, 0.27129319932501095, 0.0, 0.29999999999999977, 0.09949874371066196, 0.1705872210923198, 0.09949874371066196, 0.13999999999999993, 0.19595917942265384, 0.2598076211353321, 0.0, 0.5545268253204708], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.13999999999999993, 14.697139177404559, 0.0, 10.818206875448444, 0.0, 3.937143634667145, 0.0, 26.491319332943753, 0.0, 0.9848857801796105, 0.0, 1.5027973915335358, 0.980357077803798, 0.6371028174478587, 0.0, 4.470022371308672, 0.0, 0.481248376620639, 0.3192177939902477, 0.6641535966928127, 0.6433506042586732, 0.2917190429162964, 0.0, 0.7426977851050862, 0.0, 0.42473521163190636, 0.13999999999999987, 0.3433656942677882, 0.2374868417407583, 0.3192177939902477, 0.0, 1.657588609999478], [0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.710087717048455, 0.0, 1.1853691408164806, 0.0, 0.7088018058667741, 0.0, 0.8819863944528856, 0.0, 0.21794494717703367, 0.0, 0.17058722109231989, 0.13999999999999985, 0.1705872210923198, 0.0, 0.46249324319388735, 0.0, 0.13999999999999987, 0.0, 0.0, 0.09949874371066196, 0.1399999999999999, 0.0, 0.09949874371066199, 0.0, 0.13999999999999987, 0.0, 0.13999999999999993, 0.0, 0.09949874371066199, 0.0, 0.3059411708155671], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.9492628719169414, 0.0, 2.2049036260118027, 0.0, 0.5211525688318157, 0.0, 1.1549458861782231, 0.0, 0.19595917942265428, 0.0, 0.29171904291629613, 0.1705872210923197, 0.19595917942265417, 0.0, 0.4330127018922201, 0.0, 0.17058722109232, 0.17058722109232, 0.17058722109231983, 0.17058722109231966, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.13999999999999993, 0.0, 0.09949874371066199, 0.0, 0.4217819341792629], [0.09949874371066195, 0.6913031173081745, 0.0, 0.6749814812274478, 0.0, 0.3241913015489459, 0.0, 0.6884039511798289, 0.0, 0.17058722109231989, 0.0, 0.1399999999999999, 0.22158519806160293, 0.13999999999999985, 0.0, 0.2374868417407579, 0.0, 0.13999999999999987, 0.09949874371066196, 0.0, 0.0, 0.09949874371066195, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.19595917942265428], [0.0, 0.624819974072533, 0.0, 0.6048966853934644, 0.0, 0.28618176042508353, 0.0, 0.6048966853934643, 0.0, 0.27640549922170454, 0.0, 0.09949874371066199, 0.13999999999999987, 0.0, 0.0, 0.23748684174075788, 0.0, 0.09949874371066195, 0.0, 0.1705872210923198, 0.13999999999999985, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.3278719262150996], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.09949874371066196, 3.1402388444193226, 0.0, 3.777565353504821, 0.0, 1.3928388277184094, 0.0, 4.094032242178853, 0.0, 0.38157568056677843, 0.0, 0.44034077712608, 0.2861817604250837, 0.19595917942265403, 0.0, 2.7853904573685893, 0.0, 0.27640549922170443, 0.0, 0.13999999999999987, 0.24166091947189136, 0.17058722109231975, 0.0, 0.3192177939902477, 0.0, 0.13999999999999987, 0.09949874371066199, 0.09949874371066197, 0.0, 0.1705872210923197, 0.0, 0.47021271782035], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6248199740725331, 0.0, 0.5314132102234574, 0.0, 0.2179449471770339, 0.0, 0.4093897898091747, 0.0, 0.2215851980616033, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.09949874371066195, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17058722109231983, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.40926763859362303, 0.0, 0.17058722109231975, 0.0, 0.23748684174075807, 0.0, 0.3192177939902474, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.17058722109231964, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.5070502933634885, 0.0, 0.8246211251235314, 0.0, 0.2551470164434615, 0.0, 0.5670978751503125, 0.0, 0.13999999999999993, 0.0, 0.2598076211353315, 0.09949874371066199, 0.0, 0.0, 0.3059411708155671, 0.0, 0.09949874371066197, 0.0, 0.0, 0.09949874371066193, 0.09949874371066199, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.17058722109231972], [0.0, 0.46303347611160955, 0.0, 0.30594117081556693, 0.0, 0.17058722109231986, 0.0, 0.45563142999578066, 0.0, 0.09949874371066199, 0.0, 0.13999999999999993, 0.09949874371066193, 0.13999999999999996, 0.0, 0.21794494717703367, 0.0, 0.09949874371066199, 0.09949874371066196, 0.0, 0.09949874371066193, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0], [0.0, 0.374699879903904, 0.0, 0.36482872693909374, 0.0, 0.13999999999999987, 0.0, 0.46162755550335155, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066193, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.6013318551349155, 0.0, 0.8135723692456628, 0.0, 0.29171904291629636, 0.0, 0.5264028875300741, 0.0, 0.24166091947189144, 0.0, 0.21794494717703358, 0.0, 0.09949874371066197, 0.0, 0.19595917942265423, 0.0, 0.09949874371066199, 0.0, 0.19899748742132398, 0.09949874371066196, 0.0, 0.0, 0.13999999999999993, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.3815756805667785, 0.0, 0.36482872693909374, 0.0, 0.09949874371066196, 0.0, 0.5030904491242106, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.13999999999999985, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19899748742132398], [0.0, 0.17058722109231986, 0.0, 0.09949874371066197, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199], [0.0, 0.35440090293338716, 0.0, 0.577840808527747, 0.0, 0.0, 0.0, 0.3469870314579493, 0.0, 0.0, 0.0, 0.13999999999999987, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.09949874371066193, 0.0, 0.1399999999999999, 0.0, 0.0, 0.0, 0.09949874371066196, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13999999999999985], [0.0, 0.27640549922170504, 0.0, 0.3605551275463987, 0.0, 0.09949874371066193, 0.0, 0.17058722109231966, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.21794494717703414, 0.0, 0.21794494717703367, 0.0, 0.1399999999999999, 0.0, 0.31921779399024736, 0.0, 0.09949874371066197, 0.0, 0.09949874371066197, 0.09949874371066199, 0.0, 0.0, 0.13999999999999987, 0.0, 0.09949874371066199, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 1.1079711187571626, 0.0, 1.6147755261955143, 0.0, 0.5346961754117942, 0.0, 1.6643016553497756, 0.0, 0.27129319932501095, 0.0, 0.21794494717703367, 0.17058722109231972, 0.2764054992217047, 0.0, 0.6794115100585209, 0.0, 0.0, 0.09949874371066199, 0.2179449471770337, 0.259807621135332, 0.09949874371066199, 0.0, 0.21794494717703367, 0.0, 0.13999999999999985, 0.0, 0.2598076211353318, 0.09949874371066199, 0.0, 0.0, 1.0234744745229358]]</t>
         </is>
       </c>
     </row>
@@ -824,58 +824,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01754633715039158</v>
+        <v>0.000661815470457249</v>
       </c>
       <c r="C6" t="n">
-        <v>0.467821074817127</v>
+        <v>0.4616817661271402</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004060707349006622</v>
+        <v>0.00064455751972434</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3743715206168174</v>
+        <v>0.4012927498880753</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003809057848922195</v>
+        <v>0.003959752633644868</v>
       </c>
       <c r="G6" t="n">
-        <v>1.076885880684676</v>
+        <v>1.05946859180552</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003738034614582685</v>
+        <v>0.001616031840142593</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07853955319785165</v>
+        <v>0.07669675768101712</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03865890671820203</v>
+        <v>0.05060858247900966</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01433487103826897</v>
+        <v>0.001984191569196073</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002335063757344756</v>
+        <v>0.005349258909226131</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003160551131617203</v>
+        <v>0.002195463568061059</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1292106948065163</v>
+        <v>0.1085731524619283</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1114755219791214</v>
+        <v>0.1301983869901692</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03062398883965904</v>
+        <v>0.03445202809197634</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01613173164815061</v>
+        <v>0.01019882211860375</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9811792717875025</v>
+        <v>1.070200175704168</v>
       </c>
       <c r="S6" t="n">
-        <v>0.07666863425047366</v>
+        <v>0.09050053387727862</v>
       </c>
     </row>
     <row r="7">
@@ -885,58 +885,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9519384579522855</v>
+        <v>0.962025287674027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6064795592520151</v>
+        <v>0.6458933846027756</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9568611492373987</v>
+        <v>0.9634882743891291</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5340613830363964</v>
+        <v>0.5832200969778341</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9663275340360629</v>
+        <v>0.9614529020452365</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7480004370964571</v>
+        <v>0.7672609855867552</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8517861172181361</v>
+        <v>0.8577652406103671</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6158604083419905</v>
+        <v>0.6240293679841714</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9356219508716827</v>
+        <v>0.9540192017107606</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9557334928264647</v>
+        <v>0.9668677074509932</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9621249856124632</v>
+        <v>0.9444467483817467</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9603605356546643</v>
+        <v>0.9625477472171442</v>
       </c>
       <c r="N7" t="n">
-        <v>0.773909970060116</v>
+        <v>0.786548977285188</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8239112912966372</v>
+        <v>0.8336205521775155</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9145756233558171</v>
+        <v>0.8671457729955714</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9636698503264139</v>
+        <v>0.9289439095095897</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6548845250822544</v>
+        <v>0.6610765167379546</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9451745096350327</v>
+        <v>0.9102251202069482</v>
       </c>
     </row>
     <row r="8">
@@ -946,58 +946,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02425433480321716</v>
+        <v>0.009057193885612068</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02205892602962883</v>
+        <v>0.03417323350045241</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08733049072289881</v>
+        <v>0.0211419151811619</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02238938584975283</v>
+        <v>0.0490880502202069</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1358397108646124</v>
+        <v>0.009696418462724357</v>
       </c>
       <c r="G8" t="n">
-        <v>0.636473715034487</v>
+        <v>0.8441622806916833</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08955189577226425</v>
+        <v>0.05505924787841125</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1365915033359018</v>
+        <v>0.2084058185562114</v>
       </c>
       <c r="J8" t="n">
-        <v>3.920141766872882</v>
+        <v>2.733011198643029</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04679177718777443</v>
+        <v>0.01165952681529846</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5955500366827191</v>
+        <v>0.06280279366433186</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5160859825106969</v>
+        <v>0.07226837238948497</v>
       </c>
       <c r="N8" t="n">
-        <v>1.324755630560734</v>
+        <v>0.5854769120342538</v>
       </c>
       <c r="O8" t="n">
-        <v>3.377341675860643</v>
+        <v>2.707175425773939</v>
       </c>
       <c r="P8" t="n">
-        <v>0.987709788769406</v>
+        <v>0.6514459079305462</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1734978606190656</v>
+        <v>0.1380771096266116</v>
       </c>
       <c r="R8" t="n">
-        <v>6.050551787192698</v>
+        <v>3.17121924544246</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1638922431122313</v>
+        <v>0.1734079808401013</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9558460684708252</v>
+        <v>0.9455095945855522</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8647258281082916</v>
+        <v>0.8463539985235123</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9482482143232298</v>
+        <v>0.9525826734008664</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8501516024514236</v>
+        <v>0.8653199191019917</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9528261130495443</v>
+        <v>0.9495768201749661</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7708411526643036</v>
+        <v>0.7800798819870139</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6926445291853394</v>
+        <v>0.7057754572009629</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6731175744750733</v>
+        <v>0.6577537145407627</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6180800539730942</v>
+        <v>0.5925313488211601</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9483199505570277</v>
+        <v>0.9544981010569159</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9451907939339066</v>
+        <v>0.9068662521812966</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9493111591360844</v>
+        <v>0.9487234586714054</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4142533403286783</v>
+        <v>0.4296245256852004</v>
       </c>
       <c r="O9" t="n">
-        <v>0.695577073923682</v>
+        <v>0.6674326649733578</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8544382114990239</v>
+        <v>0.77321009021981</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9337242716034636</v>
+        <v>0.8982841140453796</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4505998965435205</v>
+        <v>0.4489718888775746</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9331016819575385</v>
+        <v>0.8893118486266254</v>
       </c>
     </row>
   </sheetData>
